--- a/data/pca/factorExposure/factorExposure_2019-06-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1199516391615653</v>
+        <v>0.07895183675037036</v>
       </c>
       <c r="C2">
-        <v>0.01822456959924024</v>
+        <v>0.01031824072140198</v>
       </c>
       <c r="D2">
-        <v>-0.02068844234858073</v>
+        <v>0.03347063849610023</v>
       </c>
       <c r="E2">
-        <v>0.104269901295674</v>
+        <v>0.1367367283271947</v>
       </c>
       <c r="F2">
-        <v>0.089569263709213</v>
+        <v>0.03565217010373138</v>
       </c>
       <c r="G2">
-        <v>0.1221760153923927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08309192435394282</v>
+      </c>
+      <c r="H2">
+        <v>0.08739755004821771</v>
+      </c>
+      <c r="I2">
+        <v>-0.05703157978213662</v>
+      </c>
+      <c r="J2">
+        <v>-0.006372915638988234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2132170604061638</v>
+        <v>0.1665314278074636</v>
       </c>
       <c r="C3">
-        <v>-0.07471645660552456</v>
+        <v>0.07809487333230436</v>
       </c>
       <c r="D3">
-        <v>0.07809794673736495</v>
+        <v>-0.05199597874129092</v>
       </c>
       <c r="E3">
-        <v>0.3245393130236825</v>
+        <v>0.3373898979992038</v>
       </c>
       <c r="F3">
-        <v>0.01464953808019061</v>
+        <v>0.1805343036904341</v>
       </c>
       <c r="G3">
-        <v>0.3431264589402577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.001649616494440262</v>
+      </c>
+      <c r="H3">
+        <v>0.2527983514731527</v>
+      </c>
+      <c r="I3">
+        <v>-0.1561649857038894</v>
+      </c>
+      <c r="J3">
+        <v>0.245224195582132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1000547358356646</v>
+        <v>0.07436941679197198</v>
       </c>
       <c r="C4">
-        <v>-0.01620526935350211</v>
+        <v>0.02915864778248659</v>
       </c>
       <c r="D4">
-        <v>-0.0007789481654269915</v>
+        <v>0.0212420844776464</v>
       </c>
       <c r="E4">
-        <v>0.0846508491470363</v>
+        <v>0.07292938832453918</v>
       </c>
       <c r="F4">
-        <v>0.050138493778148</v>
+        <v>0.06811445663595853</v>
       </c>
       <c r="G4">
-        <v>0.03346898868895747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03808913276894243</v>
+      </c>
+      <c r="H4">
+        <v>0.03650140788983923</v>
+      </c>
+      <c r="I4">
+        <v>-0.02772788375196423</v>
+      </c>
+      <c r="J4">
+        <v>0.04390146056475041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0110712116337351</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003919266506408761</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0003250334733989455</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003240034133908944</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.006344039189623164</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01334069585376591</v>
+      </c>
+      <c r="H6">
+        <v>0.00341167973903545</v>
+      </c>
+      <c r="I6">
+        <v>-0.002553467233449294</v>
+      </c>
+      <c r="J6">
+        <v>-0.00249349353543938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04467288724356962</v>
+        <v>0.03567178691752294</v>
       </c>
       <c r="C7">
-        <v>-0.002495327192156219</v>
+        <v>0.01606947064782665</v>
       </c>
       <c r="D7">
-        <v>-0.02568018682792045</v>
+        <v>0.01729083974593391</v>
       </c>
       <c r="E7">
-        <v>0.08074633858849227</v>
+        <v>0.05238355786943304</v>
       </c>
       <c r="F7">
-        <v>-0.03770040518199555</v>
+        <v>0.03642534989334338</v>
       </c>
       <c r="G7">
-        <v>0.01928974105677395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01280914582169992</v>
+      </c>
+      <c r="H7">
+        <v>0.04356935654690761</v>
+      </c>
+      <c r="I7">
+        <v>-0.005464999316455304</v>
+      </c>
+      <c r="J7">
+        <v>0.01810684564554969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04196846228178213</v>
+        <v>0.03289627753754799</v>
       </c>
       <c r="C8">
-        <v>-0.03222952081924098</v>
+        <v>0.03361681981897741</v>
       </c>
       <c r="D8">
-        <v>0.006341924572302498</v>
+        <v>0.006187846037575525</v>
       </c>
       <c r="E8">
-        <v>0.0705381077444495</v>
+        <v>0.06551129963511074</v>
       </c>
       <c r="F8">
-        <v>0.000725010531275521</v>
+        <v>0.05997612022164217</v>
       </c>
       <c r="G8">
-        <v>0.05176384002058211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0006619515205244091</v>
+      </c>
+      <c r="H8">
+        <v>0.05050798366334952</v>
+      </c>
+      <c r="I8">
+        <v>-0.03720615358860651</v>
+      </c>
+      <c r="J8">
+        <v>0.03056065694643211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.0885636384205149</v>
+        <v>0.06461377375405411</v>
       </c>
       <c r="C9">
-        <v>-0.01743237201462445</v>
+        <v>0.02955588706260978</v>
       </c>
       <c r="D9">
-        <v>-0.01507906610598192</v>
+        <v>0.02247052423630199</v>
       </c>
       <c r="E9">
-        <v>0.07612564050159196</v>
+        <v>0.0661881826988546</v>
       </c>
       <c r="F9">
-        <v>0.03140357548175358</v>
+        <v>0.07414518862215243</v>
       </c>
       <c r="G9">
-        <v>0.03067572169417133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02966960715528192</v>
+      </c>
+      <c r="H9">
+        <v>0.03312775963240215</v>
+      </c>
+      <c r="I9">
+        <v>-0.01329874628922052</v>
+      </c>
+      <c r="J9">
+        <v>0.007950439533055067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01976224028737182</v>
+        <v>0.005056202415176786</v>
       </c>
       <c r="C10">
-        <v>0.1588073180674869</v>
+        <v>-0.1594372582478452</v>
       </c>
       <c r="D10">
-        <v>0.007784191149599902</v>
+        <v>-0.01002263512363225</v>
       </c>
       <c r="E10">
-        <v>0.03947299574659045</v>
+        <v>0.04859185222427416</v>
       </c>
       <c r="F10">
-        <v>0.00200074246482378</v>
+        <v>0.009766105309927256</v>
       </c>
       <c r="G10">
-        <v>-0.01218790011927844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01619166780855247</v>
+      </c>
+      <c r="H10">
+        <v>-0.02021742855200211</v>
+      </c>
+      <c r="I10">
+        <v>-0.121936636469131</v>
+      </c>
+      <c r="J10">
+        <v>0.02462479849404499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05997043897833179</v>
+        <v>0.05109895493929641</v>
       </c>
       <c r="C11">
-        <v>0.001579324788531562</v>
+        <v>0.01657919105804959</v>
       </c>
       <c r="D11">
-        <v>0.01404364913714092</v>
+        <v>0.004671616295253651</v>
       </c>
       <c r="E11">
-        <v>0.04253566869938695</v>
+        <v>0.04712770873557916</v>
       </c>
       <c r="F11">
-        <v>0.005747848754171354</v>
+        <v>0.01074622724124999</v>
       </c>
       <c r="G11">
-        <v>-0.006861426966507192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.004507861736303075</v>
+      </c>
+      <c r="H11">
+        <v>0.01968599694991615</v>
+      </c>
+      <c r="I11">
+        <v>0.01301252251966594</v>
+      </c>
+      <c r="J11">
+        <v>0.004398985315451446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04975712246554661</v>
+        <v>0.048854944149696</v>
       </c>
       <c r="C12">
-        <v>-0.002949624776183717</v>
+        <v>0.01708741051627508</v>
       </c>
       <c r="D12">
-        <v>0.008594848025137583</v>
+        <v>0.006813741643528415</v>
       </c>
       <c r="E12">
-        <v>0.02828583333570096</v>
+        <v>0.02223840272710817</v>
       </c>
       <c r="F12">
-        <v>-0.0004921219877697198</v>
+        <v>0.02045863015396383</v>
       </c>
       <c r="G12">
-        <v>0.002349469726174954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001227091576659026</v>
+      </c>
+      <c r="H12">
+        <v>0.009281127337834202</v>
+      </c>
+      <c r="I12">
+        <v>0.01784169721888146</v>
+      </c>
+      <c r="J12">
+        <v>-0.001330192760185001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05942580039108991</v>
+        <v>0.04104092942896574</v>
       </c>
       <c r="C13">
-        <v>-0.0150957988142458</v>
+        <v>0.01876980994667059</v>
       </c>
       <c r="D13">
-        <v>0.02350654187273929</v>
+        <v>0.003173190307705676</v>
       </c>
       <c r="E13">
-        <v>0.1117065510449459</v>
+        <v>0.1017397309639936</v>
       </c>
       <c r="F13">
-        <v>0.0179283155608968</v>
+        <v>0.02832844513404597</v>
       </c>
       <c r="G13">
-        <v>0.0407682140858654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.003364920943546421</v>
+      </c>
+      <c r="H13">
+        <v>0.0543071080955293</v>
+      </c>
+      <c r="I13">
+        <v>-0.02235164408948814</v>
+      </c>
+      <c r="J13">
+        <v>0.001017204660563447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03804170697121453</v>
+        <v>0.0286459402414581</v>
       </c>
       <c r="C14">
-        <v>-0.004292889269195749</v>
+        <v>0.012380118385565</v>
       </c>
       <c r="D14">
-        <v>-0.01558379343135582</v>
+        <v>0.02068091753940745</v>
       </c>
       <c r="E14">
-        <v>0.02590351608356089</v>
+        <v>0.03313255627150614</v>
       </c>
       <c r="F14">
-        <v>-0.002195939836989153</v>
+        <v>0.0263354597995205</v>
       </c>
       <c r="G14">
-        <v>0.04242518253248033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01118259196742481</v>
+      </c>
+      <c r="H14">
+        <v>0.05921657493523794</v>
+      </c>
+      <c r="I14">
+        <v>-0.02463668031896727</v>
+      </c>
+      <c r="J14">
+        <v>0.001672604200457936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.0523947450436724</v>
+        <v>0.0435654518459147</v>
       </c>
       <c r="C16">
-        <v>-0.01691961424097593</v>
+        <v>0.02571489914242411</v>
       </c>
       <c r="D16">
-        <v>0.02474206674194175</v>
+        <v>-0.001986784996173271</v>
       </c>
       <c r="E16">
-        <v>0.03979850213741443</v>
+        <v>0.04333289056274003</v>
       </c>
       <c r="F16">
-        <v>0.00172854914284662</v>
+        <v>0.01413432627680584</v>
       </c>
       <c r="G16">
-        <v>-0.005673282682757379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.001400024017058554</v>
+      </c>
+      <c r="H16">
+        <v>0.01981013788835452</v>
+      </c>
+      <c r="I16">
+        <v>0.01219320251709146</v>
+      </c>
+      <c r="J16">
+        <v>0.006101269518424028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04978626427172021</v>
+        <v>0.04893762465369832</v>
       </c>
       <c r="C19">
-        <v>-0.02642211835986655</v>
+        <v>0.0313548787094414</v>
       </c>
       <c r="D19">
-        <v>0.009512294595163945</v>
+        <v>0.003162203735371073</v>
       </c>
       <c r="E19">
-        <v>0.07941342957131393</v>
+        <v>0.08380513397596551</v>
       </c>
       <c r="F19">
-        <v>-0.002861878584650163</v>
+        <v>0.05025668285797369</v>
       </c>
       <c r="G19">
-        <v>0.06183182178371932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.006152703107210349</v>
+      </c>
+      <c r="H19">
+        <v>0.07337039828053479</v>
+      </c>
+      <c r="I19">
+        <v>-0.05978879750539073</v>
+      </c>
+      <c r="J19">
+        <v>-0.001776079956184472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.037195658689039</v>
+        <v>0.01959382867556891</v>
       </c>
       <c r="C20">
-        <v>-0.02876105981456853</v>
+        <v>0.03070703542750953</v>
       </c>
       <c r="D20">
-        <v>0.001685988343017258</v>
+        <v>0.01119943498977193</v>
       </c>
       <c r="E20">
-        <v>0.07426662416506376</v>
+        <v>0.06538196247545647</v>
       </c>
       <c r="F20">
-        <v>-0.01113437837156754</v>
+        <v>0.04501032807667921</v>
       </c>
       <c r="G20">
-        <v>0.05071276369324438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.00886459128048241</v>
+      </c>
+      <c r="H20">
+        <v>0.07403173363578683</v>
+      </c>
+      <c r="I20">
+        <v>-0.02196628961561586</v>
+      </c>
+      <c r="J20">
+        <v>0.04200384617692356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03833909611116788</v>
+        <v>0.0171592924067678</v>
       </c>
       <c r="C21">
-        <v>-0.01022525030756918</v>
+        <v>0.02188009015147881</v>
       </c>
       <c r="D21">
-        <v>0.01842115582761387</v>
+        <v>-0.009684164900660925</v>
       </c>
       <c r="E21">
-        <v>0.08843507892654313</v>
+        <v>0.07333049394639908</v>
       </c>
       <c r="F21">
-        <v>0.04085459045181696</v>
+        <v>0.04435277867486383</v>
       </c>
       <c r="G21">
-        <v>0.04850958786960415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01785440577721633</v>
+      </c>
+      <c r="H21">
+        <v>0.04545402796851348</v>
+      </c>
+      <c r="I21">
+        <v>0.003446784824344921</v>
+      </c>
+      <c r="J21">
+        <v>-0.01396319086146416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04778283278798702</v>
+        <v>0.04144457968310973</v>
       </c>
       <c r="C24">
-        <v>-0.009169901700841216</v>
+        <v>0.01538422644989946</v>
       </c>
       <c r="D24">
-        <v>0.01192266991819921</v>
+        <v>0.004201538526117391</v>
       </c>
       <c r="E24">
-        <v>0.0535752856411781</v>
+        <v>0.04653992051857129</v>
       </c>
       <c r="F24">
-        <v>0.00368050639771313</v>
+        <v>0.01628146505676892</v>
       </c>
       <c r="G24">
-        <v>-0.00903536664718823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.008320102382004407</v>
+      </c>
+      <c r="H24">
+        <v>0.01515274741572027</v>
+      </c>
+      <c r="I24">
+        <v>0.009492719809276948</v>
+      </c>
+      <c r="J24">
+        <v>0.01141745486042276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05069691869140864</v>
+        <v>0.04424900621682876</v>
       </c>
       <c r="C25">
-        <v>0.001067315092091397</v>
+        <v>0.01521958907075599</v>
       </c>
       <c r="D25">
-        <v>0.01293025147331873</v>
+        <v>0.002182727357474249</v>
       </c>
       <c r="E25">
-        <v>0.04224467755570003</v>
+        <v>0.046521801661525</v>
       </c>
       <c r="F25">
-        <v>0.005185839084748426</v>
+        <v>0.01947645227298844</v>
       </c>
       <c r="G25">
-        <v>-0.009301391364614737</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0009072902842973809</v>
+      </c>
+      <c r="H25">
+        <v>0.01104006842002202</v>
+      </c>
+      <c r="I25">
+        <v>0.01331584254958735</v>
+      </c>
+      <c r="J25">
+        <v>0.0008200727149865158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.00244312949383615</v>
+        <v>0.01033033514148522</v>
       </c>
       <c r="C26">
-        <v>-0.0148438753346599</v>
+        <v>0.01539928421903072</v>
       </c>
       <c r="D26">
-        <v>-0.002462117148647512</v>
+        <v>-0.004404696003877807</v>
       </c>
       <c r="E26">
-        <v>0.05540923279042903</v>
+        <v>0.05941503827496384</v>
       </c>
       <c r="F26">
-        <v>0.0252032991707131</v>
+        <v>0.01097931730801402</v>
       </c>
       <c r="G26">
-        <v>0.0209590472974197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01039183223037881</v>
+      </c>
+      <c r="H26">
+        <v>0.03608718205766773</v>
+      </c>
+      <c r="I26">
+        <v>-0.001540625449440829</v>
+      </c>
+      <c r="J26">
+        <v>0.01563648023301889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1100219401795702</v>
+        <v>0.08977215691708623</v>
       </c>
       <c r="C27">
-        <v>-0.003319210505450514</v>
+        <v>0.01803869290015663</v>
       </c>
       <c r="D27">
-        <v>-0.008174438297316067</v>
+        <v>0.02870481340937248</v>
       </c>
       <c r="E27">
-        <v>0.1090875483337542</v>
+        <v>0.07257568391345835</v>
       </c>
       <c r="F27">
-        <v>0.007078748816043927</v>
+        <v>0.0573327797304853</v>
       </c>
       <c r="G27">
-        <v>-0.01736489067451122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.001884599869950602</v>
+      </c>
+      <c r="H27">
+        <v>0.007926865741625917</v>
+      </c>
+      <c r="I27">
+        <v>-0.003151292401767087</v>
+      </c>
+      <c r="J27">
+        <v>0.0215168462652372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02376563208811</v>
+        <v>0.01290097206591857</v>
       </c>
       <c r="C28">
-        <v>0.2370487481656024</v>
+        <v>-0.2305334899358552</v>
       </c>
       <c r="D28">
-        <v>0.01848994512485241</v>
+        <v>-0.01534654308090306</v>
       </c>
       <c r="E28">
-        <v>0.02234358862718707</v>
+        <v>0.03425418098341439</v>
       </c>
       <c r="F28">
-        <v>0.003487807327756972</v>
+        <v>0.007499484222967457</v>
       </c>
       <c r="G28">
-        <v>-0.04610269402338047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01863643225309901</v>
+      </c>
+      <c r="H28">
+        <v>-0.0466936038949644</v>
+      </c>
+      <c r="I28">
+        <v>-0.1629328560171694</v>
+      </c>
+      <c r="J28">
+        <v>0.0495879928495548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02190120341578959</v>
+        <v>0.01983675695020883</v>
       </c>
       <c r="C29">
-        <v>-0.01485189547586916</v>
+        <v>0.01711642346786154</v>
       </c>
       <c r="D29">
-        <v>-0.01602652676987999</v>
+        <v>0.01802361809735249</v>
       </c>
       <c r="E29">
-        <v>0.03931645513727687</v>
+        <v>0.0324750354135104</v>
       </c>
       <c r="F29">
-        <v>0.01355684758353878</v>
+        <v>0.03396112394702631</v>
       </c>
       <c r="G29">
-        <v>0.04514693164284798</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01484107735890912</v>
+      </c>
+      <c r="H29">
+        <v>0.05770521790859791</v>
+      </c>
+      <c r="I29">
+        <v>-0.01336597290480387</v>
+      </c>
+      <c r="J29">
+        <v>-0.0005097700547659063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1044814676502189</v>
+        <v>0.1019615086817522</v>
       </c>
       <c r="C30">
-        <v>0.0008152475979025739</v>
+        <v>0.02656388994728236</v>
       </c>
       <c r="D30">
-        <v>0.0009503011263359192</v>
+        <v>0.02822217482476359</v>
       </c>
       <c r="E30">
-        <v>0.1353520646918574</v>
+        <v>0.1179583165012004</v>
       </c>
       <c r="F30">
-        <v>0.0229654907273064</v>
+        <v>0.03354981033366605</v>
       </c>
       <c r="G30">
-        <v>-0.06754885064233257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01665815482455572</v>
+      </c>
+      <c r="H30">
+        <v>0.01359591377656227</v>
+      </c>
+      <c r="I30">
+        <v>0.03218355056618264</v>
+      </c>
+      <c r="J30">
+        <v>-0.01377497397491355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05660878746903117</v>
+        <v>0.05701443072925382</v>
       </c>
       <c r="C31">
-        <v>-0.008300114264599597</v>
+        <v>0.0165390805782219</v>
       </c>
       <c r="D31">
-        <v>-0.01536120815920394</v>
+        <v>0.0148137288923225</v>
       </c>
       <c r="E31">
-        <v>-0.007615388874484944</v>
+        <v>0.01715978985907064</v>
       </c>
       <c r="F31">
-        <v>0.01875655708128111</v>
+        <v>-0.01151411696508341</v>
       </c>
       <c r="G31">
-        <v>0.02327304657971963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03558878417882076</v>
+      </c>
+      <c r="H31">
+        <v>0.05015932134811021</v>
+      </c>
+      <c r="I31">
+        <v>-0.02266338046415327</v>
+      </c>
+      <c r="J31">
+        <v>-0.0009540654877482612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06788555584334426</v>
+        <v>0.04707895835563625</v>
       </c>
       <c r="C32">
-        <v>-0.01681308843422631</v>
+        <v>0.0396260723479888</v>
       </c>
       <c r="D32">
-        <v>0.002258846730223609</v>
+        <v>0.01598005947080969</v>
       </c>
       <c r="E32">
-        <v>0.1245880079263916</v>
+        <v>0.09371026532958268</v>
       </c>
       <c r="F32">
-        <v>-0.01564652551920359</v>
+        <v>0.05906503299299663</v>
       </c>
       <c r="G32">
-        <v>0.0308063517684192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01573675938266596</v>
+      </c>
+      <c r="H32">
+        <v>0.05242962967905555</v>
+      </c>
+      <c r="I32">
+        <v>-0.02452412774352223</v>
+      </c>
+      <c r="J32">
+        <v>-0.01396680076176885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.0701319792022462</v>
+        <v>0.06036985579081296</v>
       </c>
       <c r="C33">
-        <v>-0.02172491804411163</v>
+        <v>0.03898418535025496</v>
       </c>
       <c r="D33">
-        <v>-0.0003863013430106168</v>
+        <v>0.002365613707266668</v>
       </c>
       <c r="E33">
-        <v>0.07480118707240745</v>
+        <v>0.08385859172781836</v>
       </c>
       <c r="F33">
-        <v>0.037122229354651</v>
+        <v>0.02896276610765951</v>
       </c>
       <c r="G33">
-        <v>0.02436287701705039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01729209111951863</v>
+      </c>
+      <c r="H33">
+        <v>0.05133007452872119</v>
+      </c>
+      <c r="I33">
+        <v>0.008613540674338012</v>
+      </c>
+      <c r="J33">
+        <v>0.004057775317542746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04823823261625541</v>
+        <v>0.04309353549135204</v>
       </c>
       <c r="C34">
-        <v>-0.008779921584644348</v>
+        <v>0.02128067395011752</v>
       </c>
       <c r="D34">
-        <v>0.01066190411334973</v>
+        <v>0.007997005192511956</v>
       </c>
       <c r="E34">
-        <v>0.02656264950870661</v>
+        <v>0.03681415192939998</v>
       </c>
       <c r="F34">
-        <v>-0.004333519256710062</v>
+        <v>0.01399160440970173</v>
       </c>
       <c r="G34">
-        <v>0.01025625084930074</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0002133641424144866</v>
+      </c>
+      <c r="H34">
+        <v>0.02273250200086452</v>
+      </c>
+      <c r="I34">
+        <v>0.01208987615526036</v>
+      </c>
+      <c r="J34">
+        <v>-0.004790682974200994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01233588148900617</v>
+        <v>0.01390680229676118</v>
       </c>
       <c r="C36">
-        <v>0.01065602950377479</v>
+        <v>-0.0006980049292615577</v>
       </c>
       <c r="D36">
-        <v>-0.003675902710635955</v>
+        <v>0.006475097348849555</v>
       </c>
       <c r="E36">
-        <v>0.02571628089154056</v>
+        <v>0.02606727657066884</v>
       </c>
       <c r="F36">
-        <v>0.01171397717918927</v>
+        <v>0.01751226485087385</v>
       </c>
       <c r="G36">
-        <v>0.01371833556087578</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01621171064786834</v>
+      </c>
+      <c r="H36">
+        <v>0.03458257823880624</v>
+      </c>
+      <c r="I36">
+        <v>-0.009816728902397794</v>
+      </c>
+      <c r="J36">
+        <v>-0.008101495565646813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05430877411006826</v>
+        <v>0.03033574823673716</v>
       </c>
       <c r="C38">
-        <v>-0.001009177148110244</v>
+        <v>0.007192961264015144</v>
       </c>
       <c r="D38">
-        <v>-0.01765081916096796</v>
+        <v>0.006165287026506536</v>
       </c>
       <c r="E38">
-        <v>0.03931122136475163</v>
+        <v>0.0459671625393736</v>
       </c>
       <c r="F38">
-        <v>0.01245643686856974</v>
+        <v>0.02707788398261955</v>
       </c>
       <c r="G38">
-        <v>0.03320178725467299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02337964767569654</v>
+      </c>
+      <c r="H38">
+        <v>0.0182669043557023</v>
+      </c>
+      <c r="I38">
+        <v>-0.005117642619877476</v>
+      </c>
+      <c r="J38">
+        <v>-0.02908503935873775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07676898457455165</v>
+        <v>0.06314324761039575</v>
       </c>
       <c r="C39">
-        <v>-0.006969371257440021</v>
+        <v>0.02938722730147167</v>
       </c>
       <c r="D39">
-        <v>0.006864056422875987</v>
+        <v>0.01845735303451726</v>
       </c>
       <c r="E39">
-        <v>0.04816684357059817</v>
+        <v>0.06155297859907223</v>
       </c>
       <c r="F39">
-        <v>0.02053081288576365</v>
+        <v>0.01297028813175105</v>
       </c>
       <c r="G39">
-        <v>-0.007455755363949546</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01093626151793343</v>
+      </c>
+      <c r="H39">
+        <v>0.0201118186174381</v>
+      </c>
+      <c r="I39">
+        <v>0.0260280173914775</v>
+      </c>
+      <c r="J39">
+        <v>-0.007120278187556662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07370821830921948</v>
+        <v>0.05802362734476203</v>
       </c>
       <c r="C40">
-        <v>-0.02594479961080391</v>
+        <v>0.03182173968327501</v>
       </c>
       <c r="D40">
-        <v>0.01317723943548677</v>
+        <v>0.0190780916966786</v>
       </c>
       <c r="E40">
-        <v>0.1137887528727241</v>
+        <v>0.1111587206642688</v>
       </c>
       <c r="F40">
-        <v>0.02888742699895652</v>
+        <v>0.02198206410196034</v>
       </c>
       <c r="G40">
-        <v>0.08279604232141397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.002464342223478007</v>
+      </c>
+      <c r="H40">
+        <v>0.07997637152901281</v>
+      </c>
+      <c r="I40">
+        <v>-0.01877529502583664</v>
+      </c>
+      <c r="J40">
+        <v>0.02080532966506873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.004319266651149396</v>
+        <v>0.0012894923028851</v>
       </c>
       <c r="C41">
-        <v>-0.008939270853857092</v>
+        <v>0.009273186976281603</v>
       </c>
       <c r="D41">
-        <v>-0.01264775067895033</v>
+        <v>0.003407237424459878</v>
       </c>
       <c r="E41">
-        <v>0.01561961064572243</v>
+        <v>0.01454782343143464</v>
       </c>
       <c r="F41">
-        <v>0.02354527199891731</v>
+        <v>0.01181266917664318</v>
       </c>
       <c r="G41">
-        <v>0.02926502802677476</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02609855522462602</v>
+      </c>
+      <c r="H41">
+        <v>0.03836287892911355</v>
+      </c>
+      <c r="I41">
+        <v>-0.02788432417310895</v>
+      </c>
+      <c r="J41">
+        <v>0.01081407258165041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1453740116371654</v>
+        <v>0.2485840567928785</v>
       </c>
       <c r="C42">
-        <v>-0.1738482484270602</v>
+        <v>0.1121547396975102</v>
       </c>
       <c r="D42">
-        <v>0.9227172262086785</v>
+        <v>-0.9113751254539431</v>
       </c>
       <c r="E42">
-        <v>-0.1319769400968895</v>
+        <v>-0.08424099417001692</v>
       </c>
       <c r="F42">
-        <v>-0.01844208774418527</v>
+        <v>-0.2341096307965177</v>
       </c>
       <c r="G42">
-        <v>-0.1523694916545036</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.01100819901416221</v>
+      </c>
+      <c r="H42">
+        <v>-0.02114144039917167</v>
+      </c>
+      <c r="I42">
+        <v>-0.04562705053877628</v>
+      </c>
+      <c r="J42">
+        <v>0.01706637159874511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008442812849188052</v>
+        <v>0.002945846194867624</v>
       </c>
       <c r="C43">
-        <v>-0.01163607387927857</v>
+        <v>0.01196955173250104</v>
       </c>
       <c r="D43">
-        <v>-0.01270523717902365</v>
+        <v>0.00345717448461671</v>
       </c>
       <c r="E43">
-        <v>0.03777132193351316</v>
+        <v>0.02836185563829857</v>
       </c>
       <c r="F43">
-        <v>0.0003844511852415143</v>
+        <v>0.01501075353472043</v>
       </c>
       <c r="G43">
-        <v>0.02416349972360698</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.007209102434480657</v>
+      </c>
+      <c r="H43">
+        <v>0.036190598784716</v>
+      </c>
+      <c r="I43">
+        <v>-0.01730581153428884</v>
+      </c>
+      <c r="J43">
+        <v>0.009282320972015614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04560663575985493</v>
+        <v>0.03017045664191842</v>
       </c>
       <c r="C44">
-        <v>-0.03138206501116182</v>
+        <v>0.0295583515198089</v>
       </c>
       <c r="D44">
-        <v>0.006685102110606743</v>
+        <v>-0.003300721678460405</v>
       </c>
       <c r="E44">
-        <v>0.1138576952092415</v>
+        <v>0.1130774376302413</v>
       </c>
       <c r="F44">
-        <v>0.0600314454720472</v>
+        <v>0.05609151671976104</v>
       </c>
       <c r="G44">
-        <v>0.1250828300048683</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.02679725016101578</v>
+      </c>
+      <c r="H44">
+        <v>0.1154174423920696</v>
+      </c>
+      <c r="I44">
+        <v>-0.04072657001646104</v>
+      </c>
+      <c r="J44">
+        <v>0.0005175836864301574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02291232250539468</v>
+        <v>0.02135829343443209</v>
       </c>
       <c r="C46">
-        <v>-0.0112178236910266</v>
+        <v>0.0232254781791166</v>
       </c>
       <c r="D46">
-        <v>-0.02148783394738059</v>
+        <v>0.01647331512607479</v>
       </c>
       <c r="E46">
-        <v>0.02493822713312008</v>
+        <v>0.04549056465279834</v>
       </c>
       <c r="F46">
-        <v>0.0252880469816481</v>
+        <v>0.01935009504162002</v>
       </c>
       <c r="G46">
-        <v>0.04256153382755144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01451141679011524</v>
+      </c>
+      <c r="H46">
+        <v>0.06175550802457869</v>
+      </c>
+      <c r="I46">
+        <v>-0.01857613396048204</v>
+      </c>
+      <c r="J46">
+        <v>0.01809767148263521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08001631380169172</v>
+        <v>0.08842680274444825</v>
       </c>
       <c r="C47">
-        <v>-0.001503338682604959</v>
+        <v>0.01339468875394031</v>
       </c>
       <c r="D47">
-        <v>-0.01737148879569006</v>
+        <v>0.02199545424987898</v>
       </c>
       <c r="E47">
-        <v>-0.00902369707854709</v>
+        <v>0.001384852739376039</v>
       </c>
       <c r="F47">
-        <v>0.01046084714348739</v>
+        <v>-0.00153828475228861</v>
       </c>
       <c r="G47">
-        <v>0.04838816399630779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03126414956091501</v>
+      </c>
+      <c r="H47">
+        <v>0.06906001645320999</v>
+      </c>
+      <c r="I47">
+        <v>-0.03028427679908724</v>
+      </c>
+      <c r="J47">
+        <v>0.01063804037695377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01468985438137336</v>
+        <v>0.01452399607115462</v>
       </c>
       <c r="C48">
-        <v>-0.01293593847179654</v>
+        <v>0.0175322749090017</v>
       </c>
       <c r="D48">
-        <v>-0.01106116924016828</v>
+        <v>0.004991250798874266</v>
       </c>
       <c r="E48">
-        <v>0.03721965125017618</v>
+        <v>0.03568876264724322</v>
       </c>
       <c r="F48">
-        <v>0.01843649084443762</v>
+        <v>0.0215422043571252</v>
       </c>
       <c r="G48">
-        <v>0.01199991857836233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01004141710959758</v>
+      </c>
+      <c r="H48">
+        <v>0.02372507398196408</v>
+      </c>
+      <c r="I48">
+        <v>-0.01557326291838714</v>
+      </c>
+      <c r="J48">
+        <v>0.007672637153767028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07994090272666969</v>
+        <v>0.08132697293648003</v>
       </c>
       <c r="C50">
-        <v>-0.02320915412107186</v>
+        <v>0.03437778932182314</v>
       </c>
       <c r="D50">
-        <v>-0.02014374029426412</v>
+        <v>0.01523929806923429</v>
       </c>
       <c r="E50">
-        <v>-0.01797957480599241</v>
+        <v>0.0066648510502566</v>
       </c>
       <c r="F50">
-        <v>0.0128989534276645</v>
+        <v>0.004920012188802992</v>
       </c>
       <c r="G50">
-        <v>0.02548971880106795</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.004815749544818876</v>
+      </c>
+      <c r="H50">
+        <v>0.04926991810194781</v>
+      </c>
+      <c r="I50">
+        <v>-0.02030236707092588</v>
+      </c>
+      <c r="J50">
+        <v>-0.0346733900969859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06841308940090403</v>
+        <v>0.04820997829791675</v>
       </c>
       <c r="C51">
-        <v>0.02613123671688029</v>
+        <v>-0.008516502069698088</v>
       </c>
       <c r="D51">
-        <v>0.0005829364816987727</v>
+        <v>0.00722520462842824</v>
       </c>
       <c r="E51">
-        <v>0.06261211461243267</v>
+        <v>0.09717573426580915</v>
       </c>
       <c r="F51">
-        <v>0.05449340311481687</v>
+        <v>0.01890417763198426</v>
       </c>
       <c r="G51">
-        <v>0.01285614636803074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04303170863623466</v>
+      </c>
+      <c r="H51">
+        <v>0.05757991460171212</v>
+      </c>
+      <c r="I51">
+        <v>-0.04517133723373375</v>
+      </c>
+      <c r="J51">
+        <v>0.006820255994982394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1470486553618247</v>
+        <v>0.1292875484539374</v>
       </c>
       <c r="C53">
-        <v>-0.003610224129281997</v>
+        <v>0.03531882007852002</v>
       </c>
       <c r="D53">
-        <v>-0.04428193782973764</v>
+        <v>0.04825349919278146</v>
       </c>
       <c r="E53">
-        <v>-0.0228168038468733</v>
+        <v>-0.02457059531281235</v>
       </c>
       <c r="F53">
-        <v>0.00313977295022806</v>
+        <v>-0.01324473387450097</v>
       </c>
       <c r="G53">
-        <v>0.02187623832216587</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02677053376797858</v>
+      </c>
+      <c r="H53">
+        <v>0.01233392891177762</v>
+      </c>
+      <c r="I53">
+        <v>-0.0255748354178055</v>
+      </c>
+      <c r="J53">
+        <v>0.06544860358283411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02568949498146535</v>
+        <v>0.02341714750798723</v>
       </c>
       <c r="C54">
-        <v>0.008149641267292475</v>
+        <v>0.003415121389482062</v>
       </c>
       <c r="D54">
-        <v>-0.02136414805472909</v>
+        <v>0.02435777127790414</v>
       </c>
       <c r="E54">
-        <v>0.03450929711160608</v>
+        <v>0.03239280728279679</v>
       </c>
       <c r="F54">
-        <v>0.03423178162479673</v>
+        <v>0.0297638741752426</v>
       </c>
       <c r="G54">
-        <v>0.05283001882314339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02683083460222866</v>
+      </c>
+      <c r="H54">
+        <v>0.06614447467083764</v>
+      </c>
+      <c r="I54">
+        <v>-0.04275165122371106</v>
+      </c>
+      <c r="J54">
+        <v>-0.0053053431929008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09844127377712812</v>
+        <v>0.1031406701074395</v>
       </c>
       <c r="C55">
-        <v>0.006043326964272664</v>
+        <v>0.01661080357333707</v>
       </c>
       <c r="D55">
-        <v>-0.0353534642975501</v>
+        <v>0.03084803426081763</v>
       </c>
       <c r="E55">
-        <v>0.01393418561804606</v>
+        <v>-0.03002268279979517</v>
       </c>
       <c r="F55">
-        <v>-0.02001430000347183</v>
+        <v>0.02743077984949293</v>
       </c>
       <c r="G55">
-        <v>0.01065092930510192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005792632078366436</v>
+      </c>
+      <c r="H55">
+        <v>0.02735323551059721</v>
+      </c>
+      <c r="I55">
+        <v>-0.005391746242389968</v>
+      </c>
+      <c r="J55">
+        <v>0.06241234305306539</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1791329289361905</v>
+        <v>0.1675920011302401</v>
       </c>
       <c r="C56">
-        <v>0.02425466015232597</v>
+        <v>0.01626718676297353</v>
       </c>
       <c r="D56">
-        <v>-0.08549095918700433</v>
+        <v>0.08929423925960642</v>
       </c>
       <c r="E56">
-        <v>-0.05661505865207397</v>
+        <v>-0.07256961923056389</v>
       </c>
       <c r="F56">
-        <v>-0.05348449216953309</v>
+        <v>-0.01066562501435275</v>
       </c>
       <c r="G56">
-        <v>-0.007152891296219469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.01562370881957841</v>
+      </c>
+      <c r="H56">
+        <v>-0.03006157636891446</v>
+      </c>
+      <c r="I56">
+        <v>0.01916921930681867</v>
+      </c>
+      <c r="J56">
+        <v>0.08717302805624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09429542430508475</v>
+        <v>0.07368427284922088</v>
       </c>
       <c r="C57">
-        <v>-0.01754115967779469</v>
+        <v>0.02287516083478704</v>
       </c>
       <c r="D57">
-        <v>-0.01512251966451034</v>
+        <v>0.007971062541614048</v>
       </c>
       <c r="E57">
-        <v>0.07212961861641638</v>
+        <v>0.07276609929148392</v>
       </c>
       <c r="F57">
-        <v>0.006609484340939138</v>
+        <v>0.02819647337130931</v>
       </c>
       <c r="G57">
-        <v>0.04234293927312861</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0009009046318913547</v>
+      </c>
+      <c r="H57">
+        <v>0.0464834503572461</v>
+      </c>
+      <c r="I57">
+        <v>0.007169771063943789</v>
+      </c>
+      <c r="J57">
+        <v>0.01995544190770057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1631005467795745</v>
+        <v>0.2008928998007092</v>
       </c>
       <c r="C58">
-        <v>0.001208134071120595</v>
+        <v>0.03089110584969859</v>
       </c>
       <c r="D58">
-        <v>0.06559954070456138</v>
+        <v>-0.02033273739218545</v>
       </c>
       <c r="E58">
-        <v>0.1110845570614722</v>
+        <v>0.1618489534773336</v>
       </c>
       <c r="F58">
-        <v>-0.1017928228756817</v>
+        <v>0.0586211969837561</v>
       </c>
       <c r="G58">
-        <v>0.2438350187263138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.2021763509480086</v>
+      </c>
+      <c r="H58">
+        <v>0.3086976094882902</v>
+      </c>
+      <c r="I58">
+        <v>-0.1001333855325011</v>
+      </c>
+      <c r="J58">
+        <v>-0.4792339125477956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01370170716579135</v>
+        <v>0.01843001382357972</v>
       </c>
       <c r="C59">
-        <v>0.2021978835478098</v>
+        <v>-0.1994403482787084</v>
       </c>
       <c r="D59">
-        <v>-0.01666663279336857</v>
+        <v>0.02014431489244381</v>
       </c>
       <c r="E59">
-        <v>0.04012701189459143</v>
+        <v>0.05316922080597838</v>
       </c>
       <c r="F59">
-        <v>0.00607020942163003</v>
+        <v>-0.002105847570594697</v>
       </c>
       <c r="G59">
-        <v>-0.04237677820580871</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0005742030420634647</v>
+      </c>
+      <c r="H59">
+        <v>-0.0328580587397659</v>
+      </c>
+      <c r="I59">
+        <v>-0.08385120810752777</v>
+      </c>
+      <c r="J59">
+        <v>-0.005578254879949465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1760813498180571</v>
+        <v>0.180127876163879</v>
       </c>
       <c r="C60">
-        <v>0.1273247005216806</v>
+        <v>-0.07314463377714776</v>
       </c>
       <c r="D60">
-        <v>-0.01548920840529493</v>
+        <v>0.02982033530505605</v>
       </c>
       <c r="E60">
-        <v>0.1772966799108531</v>
+        <v>0.2158719669685584</v>
       </c>
       <c r="F60">
-        <v>0.05217224470723049</v>
+        <v>-0.00392506931056336</v>
       </c>
       <c r="G60">
-        <v>-0.1629175123687987</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04523100386751183</v>
+      </c>
+      <c r="H60">
+        <v>-0.2325965949952071</v>
+      </c>
+      <c r="I60">
+        <v>0.1265706734992331</v>
+      </c>
+      <c r="J60">
+        <v>-0.003106761766632164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04987782826190829</v>
+        <v>0.03952525048913741</v>
       </c>
       <c r="C61">
-        <v>-0.001599606264173584</v>
+        <v>0.01581441818232459</v>
       </c>
       <c r="D61">
-        <v>0.01260739700416406</v>
+        <v>0.001043845738554922</v>
       </c>
       <c r="E61">
-        <v>0.04511795820808891</v>
+        <v>0.0472290709814113</v>
       </c>
       <c r="F61">
-        <v>0.0177788972303408</v>
+        <v>0.01274391409093293</v>
       </c>
       <c r="G61">
-        <v>-0.02317107611092899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008116232106529545</v>
+      </c>
+      <c r="H61">
+        <v>0.006871964211279783</v>
+      </c>
+      <c r="I61">
+        <v>0.03348424631498274</v>
+      </c>
+      <c r="J61">
+        <v>-0.02350929088085219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03869360347230291</v>
+        <v>0.030236000751494</v>
       </c>
       <c r="C63">
-        <v>0.01210733096873843</v>
+        <v>0.009272779561531247</v>
       </c>
       <c r="D63">
-        <v>-0.009051213642530887</v>
+        <v>0.008357989962704608</v>
       </c>
       <c r="E63">
-        <v>0.04367158295290786</v>
+        <v>0.03359490002835031</v>
       </c>
       <c r="F63">
-        <v>0.01213983749782173</v>
+        <v>0.01866411121014484</v>
       </c>
       <c r="G63">
-        <v>0.02061654708125679</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.006955495568494511</v>
+      </c>
+      <c r="H63">
+        <v>0.04236944522894409</v>
+      </c>
+      <c r="I63">
+        <v>-0.0322431234065689</v>
+      </c>
+      <c r="J63">
+        <v>0.03904429931685981</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09204469927897987</v>
+        <v>0.06715466198684125</v>
       </c>
       <c r="C64">
-        <v>-0.01949688345374366</v>
+        <v>0.03651880265177576</v>
       </c>
       <c r="D64">
-        <v>-0.04780690313088709</v>
+        <v>0.0326668953043096</v>
       </c>
       <c r="E64">
-        <v>0.06931159082084602</v>
+        <v>0.04557374268480832</v>
       </c>
       <c r="F64">
-        <v>0.09233663994376992</v>
+        <v>0.06525307665081054</v>
       </c>
       <c r="G64">
-        <v>-0.04460203787855633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.07174620953971521</v>
+      </c>
+      <c r="H64">
+        <v>-0.006662441177593159</v>
+      </c>
+      <c r="I64">
+        <v>-0.01823407736229203</v>
+      </c>
+      <c r="J64">
+        <v>0.05693864504900979</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01205243790249984</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004266770423379952</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0003473326365004966</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.002030245793987145</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.004771978590440979</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01397520648299494</v>
+      </c>
+      <c r="H65">
+        <v>0.0004396373991945754</v>
+      </c>
+      <c r="I65">
+        <v>0.0002303761310468765</v>
+      </c>
+      <c r="J65">
+        <v>-0.002875587661935224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1030744679005559</v>
+        <v>0.07468076914214836</v>
       </c>
       <c r="C66">
-        <v>-0.009350739541650504</v>
+        <v>0.04052853313697009</v>
       </c>
       <c r="D66">
-        <v>-0.02701037566351347</v>
+        <v>0.04158906985457599</v>
       </c>
       <c r="E66">
-        <v>0.08880812147361308</v>
+        <v>0.08505545619036284</v>
       </c>
       <c r="F66">
-        <v>0.03678725790695618</v>
+        <v>0.01804240603969644</v>
       </c>
       <c r="G66">
-        <v>-0.001285135933965074</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01404448961709596</v>
+      </c>
+      <c r="H66">
+        <v>0.01842785534292609</v>
+      </c>
+      <c r="I66">
+        <v>0.04690831706680657</v>
+      </c>
+      <c r="J66">
+        <v>0.01656279683877844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06020968026931328</v>
+        <v>0.040214476593295</v>
       </c>
       <c r="C67">
-        <v>0.02145851025799323</v>
+        <v>-0.009097505756689555</v>
       </c>
       <c r="D67">
-        <v>-0.006697720831735955</v>
+        <v>0.004712959882211373</v>
       </c>
       <c r="E67">
-        <v>0.03258117847955751</v>
+        <v>0.03987872939680211</v>
       </c>
       <c r="F67">
-        <v>0.01212680096531261</v>
+        <v>0.01500963641747768</v>
       </c>
       <c r="G67">
-        <v>0.03169235292814281</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03058589823727874</v>
+      </c>
+      <c r="H67">
+        <v>0.004751621170950081</v>
+      </c>
+      <c r="I67">
+        <v>0.03318204897913136</v>
+      </c>
+      <c r="J67">
+        <v>-0.01450286788237126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01275940442055492</v>
+        <v>0.02730132603052596</v>
       </c>
       <c r="C68">
-        <v>0.2459284359877409</v>
+        <v>-0.2382174699262421</v>
       </c>
       <c r="D68">
-        <v>0.003478740107680916</v>
+        <v>0.01122817676216832</v>
       </c>
       <c r="E68">
-        <v>0.02903389851147186</v>
+        <v>0.03584055434109135</v>
       </c>
       <c r="F68">
-        <v>-0.0106002573897157</v>
+        <v>0.008106977140257831</v>
       </c>
       <c r="G68">
-        <v>-0.03229361249340346</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01228498757397394</v>
+      </c>
+      <c r="H68">
+        <v>-0.04076724933171705</v>
+      </c>
+      <c r="I68">
+        <v>-0.1744949024786804</v>
+      </c>
+      <c r="J68">
+        <v>0.0117124344867406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06494983239160179</v>
+        <v>0.06871402749811793</v>
       </c>
       <c r="C69">
-        <v>-0.002108080368295294</v>
+        <v>0.01202037357767215</v>
       </c>
       <c r="D69">
-        <v>-0.02822476235590522</v>
+        <v>0.0294689439616784</v>
       </c>
       <c r="E69">
-        <v>0.001041771484606948</v>
+        <v>0.01147397553756793</v>
       </c>
       <c r="F69">
-        <v>0.006492174851136173</v>
+        <v>-0.006010561008604763</v>
       </c>
       <c r="G69">
-        <v>0.01682654502943937</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02460778868854246</v>
+      </c>
+      <c r="H69">
+        <v>0.04855596864868064</v>
+      </c>
+      <c r="I69">
+        <v>-0.001848389690112323</v>
+      </c>
+      <c r="J69">
+        <v>0.008561274482686031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.004672069603216317</v>
+        <v>0.03294402316389769</v>
       </c>
       <c r="C71">
-        <v>0.2392366737804497</v>
+        <v>-0.2411381289389933</v>
       </c>
       <c r="D71">
-        <v>0.008066977916890344</v>
+        <v>-0.009605426402554443</v>
       </c>
       <c r="E71">
-        <v>0.05560248683359375</v>
+        <v>0.0626662626333914</v>
       </c>
       <c r="F71">
-        <v>0.002160051474597643</v>
+        <v>-0.01405448151509833</v>
       </c>
       <c r="G71">
-        <v>-0.120615929435134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.00858496250426562</v>
+      </c>
+      <c r="H71">
+        <v>-0.05427401461437414</v>
+      </c>
+      <c r="I71">
+        <v>-0.1553426969067301</v>
+      </c>
+      <c r="J71">
+        <v>-0.02118707035584524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1050870777242828</v>
+        <v>0.1132718705171554</v>
       </c>
       <c r="C72">
-        <v>0.02797365733804106</v>
+        <v>-0.009237050585438148</v>
       </c>
       <c r="D72">
-        <v>-0.04248073457662207</v>
+        <v>0.06056159927312116</v>
       </c>
       <c r="E72">
-        <v>0.06846534303010338</v>
+        <v>0.07929130928412781</v>
       </c>
       <c r="F72">
-        <v>0.009963435204389168</v>
+        <v>0.03651225908540937</v>
       </c>
       <c r="G72">
-        <v>0.03150500959571306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02374478083068534</v>
+      </c>
+      <c r="H72">
+        <v>0.002673211654458566</v>
+      </c>
+      <c r="I72">
+        <v>-0.001942038389440286</v>
+      </c>
+      <c r="J72">
+        <v>-0.08340068296683109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2680498768409164</v>
+        <v>0.2732750403126245</v>
       </c>
       <c r="C73">
-        <v>0.2233681932955044</v>
+        <v>-0.1477326152696026</v>
       </c>
       <c r="D73">
-        <v>0.03104764780471487</v>
+        <v>0.006934103879234346</v>
       </c>
       <c r="E73">
-        <v>0.2867359826659688</v>
+        <v>0.3261013916289885</v>
       </c>
       <c r="F73">
-        <v>0.03943241037779916</v>
+        <v>-0.009004014888495129</v>
       </c>
       <c r="G73">
-        <v>-0.3962268284605019</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1049927915130755</v>
+      </c>
+      <c r="H73">
+        <v>-0.4224317450253122</v>
+      </c>
+      <c r="I73">
+        <v>0.3628146923941121</v>
+      </c>
+      <c r="J73">
+        <v>-0.1604451522566731</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1550310506169743</v>
+        <v>0.1515890816517506</v>
       </c>
       <c r="C74">
-        <v>0.01346730837777726</v>
+        <v>0.0110966883169745</v>
       </c>
       <c r="D74">
-        <v>-0.0502340709979627</v>
+        <v>0.04785401047384863</v>
       </c>
       <c r="E74">
-        <v>0.009548562620527251</v>
+        <v>-0.02968978238220189</v>
       </c>
       <c r="F74">
-        <v>-0.03783139017165636</v>
+        <v>-0.005774784908992092</v>
       </c>
       <c r="G74">
-        <v>-0.01200085963727401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.009505825388965083</v>
+      </c>
+      <c r="H74">
+        <v>-0.01993772949604796</v>
+      </c>
+      <c r="I74">
+        <v>0.01942127316799789</v>
+      </c>
+      <c r="J74">
+        <v>0.09436452458578086</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2365057338451683</v>
+        <v>0.2427266576521331</v>
       </c>
       <c r="C75">
-        <v>0.0190577084825665</v>
+        <v>0.02300511860557053</v>
       </c>
       <c r="D75">
-        <v>-0.06607746048857964</v>
+        <v>0.1011300170563449</v>
       </c>
       <c r="E75">
-        <v>-0.1081588530154517</v>
+        <v>-0.1197333352570906</v>
       </c>
       <c r="F75">
-        <v>-0.04272503176750612</v>
+        <v>-0.04199608112255387</v>
       </c>
       <c r="G75">
-        <v>0.004441663974434482</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.01332974968317428</v>
+      </c>
+      <c r="H75">
+        <v>-0.01474992955955343</v>
+      </c>
+      <c r="I75">
+        <v>-0.02386851708574569</v>
+      </c>
+      <c r="J75">
+        <v>0.1550587895075476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.238073067386695</v>
+        <v>0.259819954193885</v>
       </c>
       <c r="C76">
-        <v>0.01891004391839248</v>
+        <v>0.01264086676237356</v>
       </c>
       <c r="D76">
-        <v>-0.1080496905078206</v>
+        <v>0.131495475833002</v>
       </c>
       <c r="E76">
-        <v>-0.08498620181857179</v>
+        <v>-0.1480247256153812</v>
       </c>
       <c r="F76">
-        <v>-0.04619616600164381</v>
+        <v>-0.02059133520881537</v>
       </c>
       <c r="G76">
-        <v>-0.009858216598433577</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.02461778803425466</v>
+      </c>
+      <c r="H76">
+        <v>-0.0158495035317784</v>
+      </c>
+      <c r="I76">
+        <v>0.04753955544770799</v>
+      </c>
+      <c r="J76">
+        <v>0.1794656205113298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1263737521207847</v>
+        <v>0.1314648097213881</v>
       </c>
       <c r="C77">
-        <v>-0.01115737434689544</v>
+        <v>0.04221398678716525</v>
       </c>
       <c r="D77">
-        <v>0.07509378093054481</v>
+        <v>-0.05609481298308672</v>
       </c>
       <c r="E77">
-        <v>0.1648810378768747</v>
+        <v>0.1577623194278801</v>
       </c>
       <c r="F77">
-        <v>0.001955046047833518</v>
+        <v>0.07155856464877278</v>
       </c>
       <c r="G77">
-        <v>0.1364815226174486</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03010862586247521</v>
+      </c>
+      <c r="H77">
+        <v>0.1562274846456079</v>
+      </c>
+      <c r="I77">
+        <v>-0.1705110164064109</v>
+      </c>
+      <c r="J77">
+        <v>0.0811311106838896</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.0962291306904345</v>
+        <v>0.09107425268707675</v>
       </c>
       <c r="C78">
-        <v>-0.02437608937158188</v>
+        <v>0.05011304645983598</v>
       </c>
       <c r="D78">
-        <v>0.02493235015270157</v>
+        <v>-0.003630294627313362</v>
       </c>
       <c r="E78">
-        <v>0.07548746261310604</v>
+        <v>0.08074538383829581</v>
       </c>
       <c r="F78">
-        <v>0.009585452777870604</v>
+        <v>0.05002444162912893</v>
       </c>
       <c r="G78">
-        <v>-0.02739763720760154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.00234867379792694</v>
+      </c>
+      <c r="H78">
+        <v>0.01178363864350378</v>
+      </c>
+      <c r="I78">
+        <v>-0.03509137311392481</v>
+      </c>
+      <c r="J78">
+        <v>0.01181735952561438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07366249824191436</v>
+        <v>0.09313388194459864</v>
       </c>
       <c r="C80">
-        <v>0.01120306845451804</v>
+        <v>-0.0864722212102139</v>
       </c>
       <c r="D80">
-        <v>0.01561989834065115</v>
+        <v>-0.1919114974203064</v>
       </c>
       <c r="E80">
-        <v>-0.005250363924894503</v>
+        <v>-0.3321686124343396</v>
       </c>
       <c r="F80">
-        <v>-0.04908402524372413</v>
+        <v>0.8864180336862003</v>
       </c>
       <c r="G80">
-        <v>0.2829069185096501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05772161222466227</v>
+      </c>
+      <c r="H80">
+        <v>-0.1359203337922117</v>
+      </c>
+      <c r="I80">
+        <v>0.06170489913415706</v>
+      </c>
+      <c r="J80">
+        <v>-0.09488591017343002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1640757461546175</v>
+        <v>0.1727697044778181</v>
       </c>
       <c r="C81">
-        <v>0.01079786268168155</v>
+        <v>0.009953007541980382</v>
       </c>
       <c r="D81">
-        <v>-0.05839793199675667</v>
+        <v>0.08665949090467674</v>
       </c>
       <c r="E81">
-        <v>-0.1139820253707392</v>
+        <v>-0.1366614923670022</v>
       </c>
       <c r="F81">
-        <v>-0.07336493998248199</v>
+        <v>-0.04691394479626235</v>
       </c>
       <c r="G81">
-        <v>-0.002061801306652332</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02047924902029372</v>
+      </c>
+      <c r="H81">
+        <v>-0.0101361665503075</v>
+      </c>
+      <c r="I81">
+        <v>-0.001270197225003987</v>
+      </c>
+      <c r="J81">
+        <v>0.09612613695674932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08127792894248913</v>
+        <v>0.06590151689522925</v>
       </c>
       <c r="C83">
-        <v>-0.0253618042165411</v>
+        <v>0.03308515848640415</v>
       </c>
       <c r="D83">
-        <v>0.0940374336595526</v>
+        <v>-0.04283061580108413</v>
       </c>
       <c r="E83">
-        <v>0.03541597050745892</v>
+        <v>0.06308621668865473</v>
       </c>
       <c r="F83">
-        <v>0.0718670241840709</v>
+        <v>-0.001852735440613109</v>
       </c>
       <c r="G83">
-        <v>0.03306126734512187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04741069717513555</v>
+      </c>
+      <c r="H83">
+        <v>0.04027151231434952</v>
+      </c>
+      <c r="I83">
+        <v>-0.01819240168851652</v>
+      </c>
+      <c r="J83">
+        <v>0.0883821350309426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.244230880510842</v>
+        <v>0.2548859418783402</v>
       </c>
       <c r="C85">
-        <v>-0.03904738505540533</v>
+        <v>0.05394962862713296</v>
       </c>
       <c r="D85">
-        <v>-0.0579047283641862</v>
+        <v>0.08660766012528281</v>
       </c>
       <c r="E85">
-        <v>-0.11758867402676</v>
+        <v>-0.143773246166634</v>
       </c>
       <c r="F85">
-        <v>-0.02946171068562688</v>
+        <v>-0.01953429940075361</v>
       </c>
       <c r="G85">
-        <v>0.04067680486298296</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.01668431368745249</v>
+      </c>
+      <c r="H85">
+        <v>0.02531999065801801</v>
+      </c>
+      <c r="I85">
+        <v>-0.01056287090840892</v>
+      </c>
+      <c r="J85">
+        <v>0.1784923409302074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04740517541451147</v>
+        <v>0.03113929398239609</v>
       </c>
       <c r="C86">
-        <v>-0.02746851193362761</v>
+        <v>0.04091836241768125</v>
       </c>
       <c r="D86">
-        <v>-0.003952009576917391</v>
+        <v>0.004980352817325671</v>
       </c>
       <c r="E86">
-        <v>0.05075848198443968</v>
+        <v>0.0540616802017377</v>
       </c>
       <c r="F86">
-        <v>-0.007503165053243642</v>
+        <v>0.03975846925165114</v>
       </c>
       <c r="G86">
-        <v>0.02270124750204589</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.007056326575403626</v>
+      </c>
+      <c r="H86">
+        <v>0.0372485851282682</v>
+      </c>
+      <c r="I86">
+        <v>-0.0643960643009724</v>
+      </c>
+      <c r="J86">
+        <v>-0.02481941534240885</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03037780538771921</v>
+        <v>0.03815805424118701</v>
       </c>
       <c r="C87">
-        <v>0.05152847248113462</v>
+        <v>-0.02491570382652641</v>
       </c>
       <c r="D87">
-        <v>-0.009027117094244155</v>
+        <v>0.002428484048902784</v>
       </c>
       <c r="E87">
-        <v>0.06151749709221633</v>
+        <v>0.08963257181425915</v>
       </c>
       <c r="F87">
-        <v>0.0431609636512075</v>
+        <v>0.03109170742958145</v>
       </c>
       <c r="G87">
-        <v>-0.1303215356628057</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02645652943042694</v>
+      </c>
+      <c r="H87">
+        <v>-0.008114274965068649</v>
+      </c>
+      <c r="I87">
+        <v>0.0008569095111913198</v>
+      </c>
+      <c r="J87">
+        <v>-0.09785377694453892</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03846734761723966</v>
+        <v>0.02334131395773135</v>
       </c>
       <c r="C88">
-        <v>-0.01994623697129322</v>
+        <v>0.01779405886491218</v>
       </c>
       <c r="D88">
-        <v>-0.007200270481704122</v>
+        <v>0.00895605756645226</v>
       </c>
       <c r="E88">
-        <v>-0.001233486645479779</v>
+        <v>-0.00747163783048</v>
       </c>
       <c r="F88">
-        <v>-0.005649578850694019</v>
+        <v>0.02566094404794808</v>
       </c>
       <c r="G88">
-        <v>0.06245732942834658</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02890048831925197</v>
+      </c>
+      <c r="H88">
+        <v>0.04661786301088864</v>
+      </c>
+      <c r="I88">
+        <v>0.01103793060916325</v>
+      </c>
+      <c r="J88">
+        <v>-0.02587130634219088</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02788967224761868</v>
+        <v>0.03892144550647096</v>
       </c>
       <c r="C89">
-        <v>0.4309329844733727</v>
+        <v>-0.39922170056062</v>
       </c>
       <c r="D89">
-        <v>0.09622404256412131</v>
+        <v>-0.03243731626693133</v>
       </c>
       <c r="E89">
-        <v>-0.04306004411950355</v>
+        <v>0.03950032446825322</v>
       </c>
       <c r="F89">
-        <v>0.01846495273633584</v>
+        <v>-0.04463492486524909</v>
       </c>
       <c r="G89">
-        <v>0.02624631293236292</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.06406810563005831</v>
+      </c>
+      <c r="H89">
+        <v>0.003408310640587942</v>
+      </c>
+      <c r="I89">
+        <v>-0.287743605455914</v>
+      </c>
+      <c r="J89">
+        <v>0.06576092419400391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02831213077483832</v>
+        <v>0.02290794363332944</v>
       </c>
       <c r="C90">
-        <v>0.3090347328886021</v>
+        <v>-0.3330508293552641</v>
       </c>
       <c r="D90">
-        <v>0.02234039450221131</v>
+        <v>-0.01455010312929373</v>
       </c>
       <c r="E90">
-        <v>0.02354789643201103</v>
+        <v>0.02297228305145274</v>
       </c>
       <c r="F90">
-        <v>0.004359779742095645</v>
+        <v>0.006939011861347997</v>
       </c>
       <c r="G90">
-        <v>-0.07477038596674555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01696620288068963</v>
+      </c>
+      <c r="H90">
+        <v>-0.04946728266671464</v>
+      </c>
+      <c r="I90">
+        <v>-0.2006110696171477</v>
+      </c>
+      <c r="J90">
+        <v>0.03015994934958311</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3098016081737712</v>
+        <v>0.3158868999776167</v>
       </c>
       <c r="C91">
-        <v>-0.01044390860549459</v>
+        <v>0.04075562935548176</v>
       </c>
       <c r="D91">
-        <v>-0.0785369799182264</v>
+        <v>0.1059169459079892</v>
       </c>
       <c r="E91">
-        <v>-0.2544666835738155</v>
+        <v>-0.2673196571658328</v>
       </c>
       <c r="F91">
-        <v>-0.1215469581120842</v>
+        <v>-0.08375178382042275</v>
       </c>
       <c r="G91">
-        <v>0.1215584643901279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02554690760111764</v>
+      </c>
+      <c r="H91">
+        <v>-0.009951829986298136</v>
+      </c>
+      <c r="I91">
+        <v>-0.01443783666080745</v>
+      </c>
+      <c r="J91">
+        <v>0.3400962624137605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04277520841949919</v>
+        <v>0.06180945143277567</v>
       </c>
       <c r="C92">
-        <v>0.4492767203587884</v>
+        <v>-0.4750565256602918</v>
       </c>
       <c r="D92">
-        <v>0.2014215543436815</v>
+        <v>-0.05743706182956212</v>
       </c>
       <c r="E92">
-        <v>-0.1166166650936292</v>
+        <v>-0.1294434819646803</v>
       </c>
       <c r="F92">
-        <v>-0.09463104737985903</v>
+        <v>-0.06511054412476781</v>
       </c>
       <c r="G92">
-        <v>0.5283781941783735</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03168936589457189</v>
+      </c>
+      <c r="H92">
+        <v>0.5836338433162019</v>
+      </c>
+      <c r="I92">
+        <v>0.6057693287467705</v>
+      </c>
+      <c r="J92">
+        <v>0.01046265415899405</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.0413268304997739</v>
+        <v>0.02301936266043729</v>
       </c>
       <c r="C93">
-        <v>0.3620416910912692</v>
+        <v>-0.4065298134676976</v>
       </c>
       <c r="D93">
-        <v>0.06962317002485535</v>
+        <v>-0.03965963121419328</v>
       </c>
       <c r="E93">
-        <v>-0.05759596105590745</v>
+        <v>-0.02151244702191551</v>
       </c>
       <c r="F93">
-        <v>-0.01984991139650022</v>
+        <v>-0.03583739480078877</v>
       </c>
       <c r="G93">
-        <v>0.007176470376948446</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03952644365034742</v>
+      </c>
+      <c r="H93">
+        <v>-0.06006957661644271</v>
+      </c>
+      <c r="I93">
+        <v>-0.2132246471825655</v>
+      </c>
+      <c r="J93">
+        <v>0.04913655627371324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3048731763631876</v>
+        <v>0.3244642913287091</v>
       </c>
       <c r="C94">
-        <v>0.0256992057245299</v>
+        <v>0.009097167513912461</v>
       </c>
       <c r="D94">
-        <v>-0.07720046936127126</v>
+        <v>0.1673446902786151</v>
       </c>
       <c r="E94">
-        <v>-0.4247279586841062</v>
+        <v>-0.361267908227669</v>
       </c>
       <c r="F94">
-        <v>-0.4610551043551203</v>
+        <v>-0.1626962738929064</v>
       </c>
       <c r="G94">
-        <v>-0.1319433233747916</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2288347135736302</v>
+      </c>
+      <c r="H94">
+        <v>0.03617618415723214</v>
+      </c>
+      <c r="I94">
+        <v>-0.229197818269109</v>
+      </c>
+      <c r="J94">
+        <v>-0.5428017048322966</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1926325205090789</v>
+        <v>0.1448746360365717</v>
       </c>
       <c r="C95">
-        <v>0.04492274204020962</v>
+        <v>0.05458101873912572</v>
       </c>
       <c r="D95">
-        <v>-0.02818053585726151</v>
+        <v>0.04185532242729897</v>
       </c>
       <c r="E95">
-        <v>-0.4142354917639098</v>
+        <v>-0.01876700317121654</v>
       </c>
       <c r="F95">
-        <v>0.8253520059280629</v>
+        <v>-0.1011473359072997</v>
       </c>
       <c r="G95">
-        <v>0.05210768310612631</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9188196745825539</v>
+      </c>
+      <c r="H95">
+        <v>-0.03277869461695366</v>
+      </c>
+      <c r="I95">
+        <v>0.004265402378520696</v>
+      </c>
+      <c r="J95">
+        <v>-0.260897351232497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2072075102178336</v>
+        <v>0.2064245200226015</v>
       </c>
       <c r="C98">
-        <v>0.1452606290968564</v>
+        <v>-0.09323186288950593</v>
       </c>
       <c r="D98">
-        <v>0.02445942577274389</v>
+        <v>-0.003080299762802294</v>
       </c>
       <c r="E98">
-        <v>0.09444719397383625</v>
+        <v>0.1704690107154042</v>
       </c>
       <c r="F98">
-        <v>0.03151890510744315</v>
+        <v>-0.04383753776557105</v>
       </c>
       <c r="G98">
-        <v>-0.2585965842523232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.04755633074184147</v>
+      </c>
+      <c r="H98">
+        <v>-0.2930714952437057</v>
+      </c>
+      <c r="I98">
+        <v>0.2245511769520063</v>
+      </c>
+      <c r="J98">
+        <v>-0.03042380196725675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02171765601900642</v>
+        <v>0.01351529700571586</v>
       </c>
       <c r="C101">
-        <v>-0.0151656997838529</v>
+        <v>0.02727245620715005</v>
       </c>
       <c r="D101">
-        <v>-0.01753663027048069</v>
+        <v>0.02257763390117292</v>
       </c>
       <c r="E101">
-        <v>0.04004955434600586</v>
+        <v>0.05808190230887743</v>
       </c>
       <c r="F101">
-        <v>0.01344628543295434</v>
+        <v>0.04470386541459932</v>
       </c>
       <c r="G101">
-        <v>0.04534676485580567</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.009089480762087572</v>
+      </c>
+      <c r="H101">
+        <v>0.1176155611722747</v>
+      </c>
+      <c r="I101">
+        <v>-0.01259482654096908</v>
+      </c>
+      <c r="J101">
+        <v>-0.09632894555274883</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1198789484801393</v>
+        <v>0.1207913677060336</v>
       </c>
       <c r="C102">
-        <v>0.002332638833884534</v>
+        <v>0.026104337119422</v>
       </c>
       <c r="D102">
-        <v>-0.04877963532522222</v>
+        <v>0.05299720016400455</v>
       </c>
       <c r="E102">
-        <v>-0.07208732632395795</v>
+        <v>-0.08802916637866318</v>
       </c>
       <c r="F102">
-        <v>0.01046082604313863</v>
+        <v>-0.008514665203144218</v>
       </c>
       <c r="G102">
-        <v>0.01363619043754621</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03333589586932419</v>
+      </c>
+      <c r="H102">
+        <v>-0.004758904947344911</v>
+      </c>
+      <c r="I102">
+        <v>-0.02658583246776508</v>
+      </c>
+      <c r="J102">
+        <v>0.06704789814528542</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01677820246831067</v>
+        <v>0.02052107854823837</v>
       </c>
       <c r="C103">
-        <v>0.0005331166747696619</v>
+        <v>0.008615953673423486</v>
       </c>
       <c r="D103">
-        <v>-0.01577128495940878</v>
+        <v>0.01684899899631696</v>
       </c>
       <c r="E103">
-        <v>-0.02634517688208609</v>
+        <v>-0.01548761956254847</v>
       </c>
       <c r="F103">
-        <v>-0.01557204510621075</v>
+        <v>-0.006001898338770014</v>
       </c>
       <c r="G103">
-        <v>-0.01197646176337856</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.009815173301651547</v>
+      </c>
+      <c r="H103">
+        <v>0.004242136161373678</v>
+      </c>
+      <c r="I103">
+        <v>-0.02103031462896467</v>
+      </c>
+      <c r="J103">
+        <v>0.004020065186110896</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
